--- a/resumen_distrital_copy.xlsx
+++ b/resumen_distrital_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>region</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pendientes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,9 +498,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,9 +527,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,9 +556,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>390</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,9 +585,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -631,9 +614,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,9 +643,6 @@
           <t>LORETO</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -695,9 +672,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,9 +701,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -741,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="D10" t="n">
-        <v>588</v>
+        <v>601</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -759,9 +730,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>189</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -791,9 +759,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -823,9 +788,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -855,9 +817,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -887,9 +846,6 @@
           <t>LAMBAYEQUE</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -919,9 +875,6 @@
           <t>JUNIN</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -951,9 +904,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -983,9 +933,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>413</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -997,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="D18" t="n">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1015,9 +962,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>502</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1047,9 +991,6 @@
           <t>CUSCO</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1079,9 +1020,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1093,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D21" t="n">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1111,9 +1049,6 @@
           <t>LA LIBERTAD</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1143,9 +1078,6 @@
           <t>JUNIN</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>128</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1175,9 +1107,6 @@
           <t>LA LIBERTAD</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1207,9 +1136,6 @@
           <t>JUNIN</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>145</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1239,9 +1165,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1271,9 +1194,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H26" t="n">
-        <v>355</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1303,9 +1223,6 @@
           <t>LORETO</t>
         </is>
       </c>
-      <c r="H27" t="n">
-        <v>229</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1335,9 +1252,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H28" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1367,9 +1281,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H29" t="n">
-        <v>94</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1399,9 +1310,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H30" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1431,9 +1339,6 @@
           <t>LAMBAYEQUE</t>
         </is>
       </c>
-      <c r="H31" t="n">
-        <v>149</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1463,9 +1368,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H32" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1495,9 +1397,6 @@
           <t>SAN MARTIN</t>
         </is>
       </c>
-      <c r="H33" t="n">
-        <v>17</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1509,10 +1408,10 @@
         <v>56</v>
       </c>
       <c r="C34" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D34" t="n">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1527,9 +1426,6 @@
           <t>LA LIBERTAD</t>
         </is>
       </c>
-      <c r="H34" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1559,9 +1455,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H35" t="n">
-        <v>67</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1591,9 +1484,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H36" t="n">
-        <v>29</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1623,9 +1513,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1655,9 +1542,6 @@
           <t>LAMBAYEQUE</t>
         </is>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1669,10 +1553,10 @@
         <v>378</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D39" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1687,9 +1571,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H39" t="n">
-        <v>214</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1719,9 +1600,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H40" t="n">
-        <v>61</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1751,9 +1629,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H41" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1783,9 +1658,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H42" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1815,9 +1687,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1847,9 +1716,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1879,9 +1745,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1911,9 +1774,6 @@
           <t>SAN MARTIN</t>
         </is>
       </c>
-      <c r="H46" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1943,9 +1803,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1975,9 +1832,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H48" t="n">
-        <v>71</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2007,9 +1861,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H49" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2039,9 +1890,6 @@
           <t>PIURA</t>
         </is>
       </c>
-      <c r="H50" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2053,10 +1901,10 @@
         <v>86</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2071,9 +1919,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H51" t="n">
-        <v>82</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2103,9 +1948,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H52" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2117,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="D53" t="n">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2135,9 +1977,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H53" t="n">
-        <v>206</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2167,9 +2006,6 @@
           <t>LORETO</t>
         </is>
       </c>
-      <c r="H54" t="n">
-        <v>317</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2199,9 +2035,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H55" t="n">
-        <v>304</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2231,9 +2064,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2263,9 +2093,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H57" t="n">
-        <v>63</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2295,9 +2122,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H58" t="n">
-        <v>32</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2327,9 +2151,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2341,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>902</v>
+        <v>959</v>
       </c>
       <c r="D60" t="n">
-        <v>902</v>
+        <v>959</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2359,9 +2180,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H60" t="n">
-        <v>810</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2373,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="D61" t="n">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2391,9 +2209,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H61" t="n">
-        <v>65</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2423,9 +2238,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H62" t="n">
-        <v>57</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2455,9 +2267,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H63" t="n">
-        <v>587</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2487,9 +2296,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H64" t="n">
-        <v>97</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2519,9 +2325,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H65" t="n">
-        <v>302</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2551,9 +2354,6 @@
           <t>CUSCO</t>
         </is>
       </c>
-      <c r="H66" t="n">
-        <v>114</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2583,9 +2383,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H67" t="n">
-        <v>35</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2615,9 +2412,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2647,9 +2441,6 @@
           <t>PIURA</t>
         </is>
       </c>
-      <c r="H69" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2679,9 +2470,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2711,9 +2499,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H71" t="n">
-        <v>60</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2743,9 +2528,6 @@
           <t>SAN MARTIN</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>43</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2775,9 +2557,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H73" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2807,9 +2586,6 @@
           <t>LA LIBERTAD</t>
         </is>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2839,9 +2615,6 @@
           <t>PIURA</t>
         </is>
       </c>
-      <c r="H75" t="n">
-        <v>23</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2853,10 +2626,10 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="D76" t="n">
-        <v>240</v>
+        <v>274</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2871,9 +2644,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H76" t="n">
-        <v>132</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2903,9 +2673,6 @@
           <t>LA LIBERTAD</t>
         </is>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2917,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="D78" t="n">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2935,9 +2702,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H78" t="n">
-        <v>373</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2949,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="D79" t="n">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2967,9 +2731,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H79" t="n">
-        <v>198</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2999,9 +2760,6 @@
           <t>CUSCO</t>
         </is>
       </c>
-      <c r="H80" t="n">
-        <v>54</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3030,9 +2788,6 @@
         <is>
           <t>AREQUIPA</t>
         </is>
-      </c>
-      <c r="H81" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_distrital_copy.xlsx
+++ b/resumen_distrital_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>distrito_region</t>
+          <t>DISTRITO_REGION</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -467,6 +467,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>region</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>pendientes</t>
         </is>
       </c>
     </row>
@@ -498,6 +503,9 @@
           <t>AREQUIPA</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -527,6 +535,9 @@
           <t>AREQUIPA</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -549,12 +560,15 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>958</v>
+        <v>1204</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H4" t="n">
+        <v>636</v>
       </c>
     </row>
     <row r="5">
@@ -585,6 +599,9 @@
           <t>AYACUCHO</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +631,9 @@
           <t>LIMA</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -643,6 +663,9 @@
           <t>LORETO</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -651,13 +674,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>368</v>
+        <v>87</v>
       </c>
       <c r="C8" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>422</v>
+        <v>114</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -672,2122 +695,2472 @@
           <t>CALLAO</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BREÑA (LIMA)</t>
+          <t>BELLAVISTA (PIURA)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BREÑA</t>
+          <t>BELLAVISTA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CALLAO (CALLAO)</t>
+          <t>BREÑA (LIMA)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C10" t="n">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>601</v>
+        <v>122</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CALLAO</t>
+          <t>BREÑA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>777</v>
+        <v>171</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CARMEN ALTO (AYACUCHO)</t>
+          <t>CALLAO (CALLAO)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>33</v>
+        <v>602</v>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>602</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CARMEN ALTO</t>
+          <t>CALLAO</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>52</v>
+        <v>920</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
-        </is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA- REYNOSO (CALLAO)</t>
+          <t>CARMEN ALTO (AYACUCHO)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CARMEN DE LA LEGUA- REYNOSO</t>
+          <t>CARMEN ALTO</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
+          <t>AYACUCHO</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CERRO COLORADO (AREQUIPA)</t>
+          <t>CARMEN DE LA LEGUA- REYNOSO (CALLAO)</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CERRO COLORADO</t>
+          <t>CARMEN DE LA LEGUA- REYNOSO</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHICLAYO (LAMBAYEQUE)</t>
+          <t>CERRO COLORADO (AREQUIPA)</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>826</v>
+        <v>58</v>
       </c>
       <c r="D14" t="n">
-        <v>826</v>
+        <v>58</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CHICLAYO</t>
+          <t>CERRO COLORADO</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>574</v>
+        <v>148</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHILCA (JUNIN)</t>
+          <t>CHICLAYO (LAMBAYEQUE)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>413</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CHILCA</t>
+          <t>CHICLAYO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>177</v>
+        <v>574</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>JUNIN</t>
-        </is>
+          <t>LAMBAYEQUE</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA (ICA)</t>
+          <t>CHILCA (JUNIN)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CHINCHA ALTA</t>
+          <t>CHILCA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHORRILLOS (LIMA)</t>
+          <t>CHINCHA ALTA (ICA)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D17" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CHORRILLOS</t>
+          <t>CHINCHA ALTA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>493</v>
+        <v>112</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>COMAS (LIMA)</t>
+          <t>CHORRILLOS (LIMA)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="C18" t="n">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>531</v>
+        <v>80</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>CHORRILLOS</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1012</v>
+        <v>493</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H18" t="n">
+        <v>413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CUSCO (CUSCO)</t>
+          <t>COMAS (LIMA)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>531</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>531</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>177</v>
+        <v>1060</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>529</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EL AGUSTINO (LIMA)</t>
+          <t>CUSCO (CUSCO)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>EL AGUSTINO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>385</v>
+        <v>177</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>CUSCO</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EL PORVENIR (LA LIBERTAD)</t>
+          <t>EL AGUSTINO (LIMA)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>608</v>
+        <v>234</v>
       </c>
       <c r="D21" t="n">
-        <v>608</v>
+        <v>234</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>EL AGUSTINO</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>267</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EL TAMBO (JUNIN)</t>
+          <t>EL PORVENIR (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="D22" t="n">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>JUNIN</t>
-        </is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA (LA LIBERTAD)</t>
+          <t>EL TAMBO (JUNIN)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HUANCAYO (JUNIN)</t>
+          <t>FLORENCIA DE MORA (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C24" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>JUNIN</t>
-        </is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICA (ICA)</t>
+          <t>HUANCAYO (JUNIN)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="D25" t="n">
-        <v>175</v>
+        <v>106</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
+          <t>JUNIN</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA (LIMA)</t>
+          <t>ICA (ICA)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>431</v>
+        <v>216</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IQUITOS (LORETO)</t>
+          <t>INDEPENDENCIA (LIMA)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C27" t="n">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LORETO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JACOBO HUNTER (AREQUIPA)</t>
+          <t>IQUITOS (LORETO)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="D28" t="n">
-        <v>50</v>
+        <v>219</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>JACOBO HUNTER</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>61</v>
+        <v>448</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LORETO</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JESUS MARIA (LIMA)</t>
+          <t>JACOBO HUNTER (AREQUIPA)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D29" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>JACOBO HUNTER</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JESUS NAZARENO (AYACUCHO)</t>
+          <t>JESUS MARIA (LIMA)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C30" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>JESUS NAZARENO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ (LAMBAYEQUE)</t>
+          <t>JESUS NAZARENO (AYACUCHO)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="D31" t="n">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>JESUS NAZARENO</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>302</v>
+        <v>32</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
-        </is>
+          <t>AYACUCHO</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JOSE LUIS BUSTAMANTE Y RIVERO (AREQUIPA)</t>
+          <t>JOSE LEONARDO ORTIZ (LAMBAYEQUE)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="D32" t="n">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>JOSE LUIS BUSTAMANTE Y RIVERO</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>302</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LAMBAYEQUE</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO (SAN MARTIN)</t>
+          <t>JOSE LUIS BUSTAMANTE Y RIVERO (AREQUIPA)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>JOSE LUIS BUSTAMANTE Y RIVERO</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LA ESPERANZA (LA LIBERTAD)</t>
+          <t>LA BANDA DE SHILCAYO (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="D34" t="n">
-        <v>274</v>
+        <v>36</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>308</v>
+        <v>53</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LA MOLINA (LIMA)</t>
+          <t>LA ESPERANZA (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="C35" t="n">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D35" t="n">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LA PERLA (CALLAO)</t>
+          <t>LA MOLINA (LIMA)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="D36" t="n">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>108</v>
+        <v>305</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LA PUNTA (CALLAO)</t>
+          <t>LA PERLA (CALLAO)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>CALLAO</t>
         </is>
+      </c>
+      <c r="H37" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LA VICTORIA (LAMBAYEQUE)</t>
+          <t>LA PUNTA (CALLAO)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D38" t="n">
-        <v>568</v>
+        <v>10</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
-        </is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LIMA (LIMA)</t>
+          <t>LA VICTORIA (LAMBAYEQUE)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="C39" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>614</v>
+        <v>158</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>LAMBAYEQUE</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LINCE (LIMA)</t>
+          <t>LA VICTORIA (LIMA)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D40" t="n">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>131</v>
+        <v>441</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H40" t="n">
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LOS OLIVOS (LIMA)</t>
+          <t>LIMA (LIMA)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="C41" t="n">
-        <v>513</v>
+        <v>24</v>
       </c>
       <c r="D41" t="n">
-        <v>513</v>
+        <v>402</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LOS OLIVOS</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H41" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAGDALENA (LIMA)</t>
+          <t>LINCE (LIMA)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H42" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MARIANO MELGAR (AREQUIPA)</t>
+          <t>LOS OLIVOS (LIMA)</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="D43" t="n">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MARIANO MELGAR</t>
+          <t>LOS OLIVOS</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>48</v>
+        <v>627</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MI PERU (CALLAO)</t>
+          <t>MAGDALENA (LIMA)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="C44" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MIRAFLORES (LIMA)</t>
+          <t>MARIANO MELGAR (AREQUIPA)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D45" t="n">
-        <v>560</v>
+        <v>48</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>MARIANO MELGAR</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>250</v>
+        <v>48</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MORALES (SAN MARTIN)</t>
+          <t>MI PERU (CALLAO)</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PARCONA (ICA)</t>
+          <t>MIRAFLORES (AREQUIPA)</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D47" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PAUCARPATA (AREQUIPA)</t>
+          <t>MIRAFLORES (LIMA)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C48" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>217</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAUCARPATA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PISCO (ICA)</t>
+          <t>MORALES (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PIURA (PIURA)</t>
+          <t>PARCONA (ICA)</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>416</v>
+        <v>70</v>
       </c>
       <c r="D50" t="n">
-        <v>416</v>
+        <v>70</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>PIURA</t>
-        </is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE (LIMA)</t>
+          <t>PAUCARPATA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="D51" t="n">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE</t>
+          <t>PAUCARPATA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO (ICA)</t>
+          <t>PISCO (ICA)</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>ICA</t>
         </is>
+      </c>
+      <c r="H52" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA (LIMA)</t>
+          <t>PIURA (PIURA)</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="D53" t="n">
-        <v>308</v>
+        <v>416</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PUNCHANA (LORETO)</t>
+          <t>PUEBLO LIBRE (LIMA)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C54" t="n">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>PUEBLO LIBRE</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>453</v>
+        <v>169</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>LORETO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RIMAC (LIMA)</t>
+          <t>PUEBLO NUEVO (ICA)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D55" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>RIMAC</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>359</v>
+        <v>91</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SACHACA (AREQUIPA)</t>
+          <t>PUENTE PIEDRA (LIMA)</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>13</v>
+        <v>308</v>
       </c>
       <c r="D56" t="n">
-        <v>13</v>
+        <v>308</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SACHACA</t>
+          <t>PUENTE PIEDRA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>18</v>
+        <v>623</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SAN BORJA (LIMA)</t>
+          <t>PUNCHANA (LORETO)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D57" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>201</v>
+        <v>453</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>LORETO</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SAN ISIDRO (LIMA)</t>
+          <t>RIMAC (LIMA)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>RIMAC</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>143</v>
+        <v>359</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H58" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA (AYACUCHO)</t>
+          <t>SACHACA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>SACHACA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO (LIMA)</t>
+          <t>SAN BORJA (LIMA)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C60" t="n">
-        <v>959</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>959</v>
+        <v>138</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1712</v>
+        <v>201</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H60" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES (LIMA)</t>
+          <t>SAN ISIDRO (LIMA)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="C61" t="n">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>526</v>
+        <v>111</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>576</v>
+        <v>143</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H61" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SAN LUIS (LIMA)</t>
+          <t>SAN JUAN BAUTISTA (AYACUCHO)</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D62" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>AYACUCHO</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES (LIMA)</t>
+          <t>SAN JUAN BAUTISTA (LORETO)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D63" t="n">
-        <v>488</v>
+        <v>143</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1075</v>
+        <v>527</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>LORETO</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SAN MIGUEL (LIMA)</t>
+          <t>SAN JUAN DE LURIGANCHO (LIMA)</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="D64" t="n">
-        <v>157</v>
+        <v>959</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN JUAN DE LURIGANCHO</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>254</v>
+        <v>2012</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1053</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SANTA ANITA (LIMA)</t>
+          <t>SAN JUAN DE MIRAFLORES (LIMA)</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="D65" t="n">
-        <v>84</v>
+        <v>526</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SANTA ANITA</t>
+          <t>SAN JUAN DE MIRAFLORES</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>386</v>
+        <v>697</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H65" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SANTIAGO (CUSCO)</t>
+          <t>SAN LUIS (LIMA)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C66" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO (LIMA)</t>
+          <t>SAN MARTIN DE PORRES (LIMA)</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="C67" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN MARTIN DE PORRES</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>541</v>
+        <v>1075</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H67" t="n">
+        <v>587</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOCABAYA (AREQUIPA)</t>
+          <t>SAN MIGUEL (LIMA)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C68" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SOCABAYA</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SULLANA (PIURA)</t>
+          <t>SANTA ANITA (LIMA)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="C69" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>326</v>
+        <v>84</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SANTA ANITA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>PIURA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>302</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SUNAMPE (ICA)</t>
+          <t>SANTIAGO (CUSCO)</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D70" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
+          <t>CUSCO</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SURQUILLO (LIMA)</t>
+          <t>SANTIAGO DE SURCO (LIMA)</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="D71" t="n">
-        <v>117</v>
+        <v>506</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SURQUILLO</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>177</v>
+        <v>636</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
+      </c>
+      <c r="H71" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TARAPOTO (SAN MARTIN)</t>
+          <t>SOCABAYA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D72" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SOCABAYA</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>TIABAYA (AREQUIPA)</t>
+          <t>SULLANA (PIURA)</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="D73" t="n">
-        <v>10</v>
+        <v>326</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>TIABAYA</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>16</v>
+        <v>416</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>TRUJILLO (LA LIBERTAD)</t>
+          <t>SUNAMPE (ICA)</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1144</v>
+        <v>23</v>
       </c>
       <c r="D74" t="n">
-        <v>1144</v>
+        <v>23</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>684</v>
+        <v>33</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE (PIURA)</t>
+          <t>SURQUILLO (LIMA)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
         <v>117</v>
       </c>
-      <c r="D75" t="n">
-        <v>144</v>
-      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>SURQUILLO</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>PIURA</t>
-        </is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VENTANILLA (CALLAO)</t>
+          <t>TARAPOTO (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="D76" t="n">
-        <v>274</v>
+        <v>57</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>372</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
+          <t>SAN MARTIN</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA (LA LIBERTAD)</t>
+          <t>TIABAYA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="D77" t="n">
-        <v>266</v>
+        <v>10</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>TIABAYA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
+          <t>AREQUIPA</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR (LIMA)</t>
+          <t>TRUJILLO (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>402</v>
+        <v>572</v>
       </c>
       <c r="D78" t="n">
-        <v>402</v>
+        <v>572</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>740</v>
+        <v>684</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO (LIMA)</t>
+          <t>VEINTISEIS DE OCTUBRE (PIURA)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C79" t="n">
-        <v>424</v>
+        <v>117</v>
       </c>
       <c r="D79" t="n">
-        <v>424</v>
+        <v>144</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO</t>
+          <t>VEINTISEIS DE OCTUBRE</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>613</v>
+        <v>167</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
+          <t>PIURA</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WANCHAQ (CUSCO)</t>
+          <t>VENTANILLA (CALLAO)</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="D80" t="n">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>WANCHAQ</t>
+          <t>VENTANILLA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>106</v>
+        <v>372</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>VICTOR LARCO HERRERA (LA LIBERTAD)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>133</v>
+      </c>
+      <c r="D81" t="n">
+        <v>133</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>VICTOR LARCO HERRERA</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>146</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR (LIMA)</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>402</v>
+      </c>
+      <c r="D82" t="n">
+        <v>402</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>607</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>VILLA MARIA DEL TRIUNFO (LIMA)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>436</v>
+      </c>
+      <c r="D83" t="n">
+        <v>436</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VILLA MARIA DEL TRIUNFO</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>698</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>LIMA</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>WANCHAQ (CUSCO)</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>52</v>
+      </c>
+      <c r="D84" t="n">
+        <v>52</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>WANCHAQ</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>106</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>CUSCO</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>YANAHUARA (AREQUIPA)</t>
         </is>
       </c>
-      <c r="B81" t="n">
+      <c r="B85" t="n">
         <v>20</v>
       </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
         <v>20</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>YANAHUARA</t>
         </is>
       </c>
-      <c r="F81" t="n">
+      <c r="F85" t="n">
         <v>25</v>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>AREQUIPA</t>
         </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resumen_distrital_copy.xlsx
+++ b/resumen_distrital_copy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,11 +469,6 @@
           <t>region</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>pendientes</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,9 +498,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>28</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,9 +527,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>12</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,9 +556,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>636</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,9 +585,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -631,9 +614,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -663,9 +643,6 @@
           <t>LORETO</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>119</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -695,9 +672,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>41</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -727,9 +701,6 @@
           <t>PIURA</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -759,9 +730,6 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>49</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -773,10 +741,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="D11" t="n">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -791,9 +759,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>318</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -823,9 +788,6 @@
           <t>AYACUCHO</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -855,9 +817,6 @@
           <t>CALLAO</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -887,9 +846,6 @@
           <t>AREQUIPA</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>90</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -919,9 +875,6 @@
           <t>LAMBAYEQUE</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>161</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -951,9 +904,6 @@
           <t>JUNIN</t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>105</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -983,9 +933,6 @@
           <t>ICA</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1015,2152 +962,2122 @@
           <t>LIMA</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>413</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>COMAS (LIMA)</t>
+          <t>CHUPACA (JUNIN)</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>531</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>531</v>
+        <v>10</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COMAS</t>
+          <t>CHUPACA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1060</v>
+        <v>52</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>529</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CUSCO (CUSCO)</t>
+          <t>COMAS (LIMA)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>72</v>
+        <v>531</v>
       </c>
       <c r="D20" t="n">
-        <v>72</v>
+        <v>531</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>CUSCO</t>
+          <t>COMAS</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>177</v>
+        <v>1060</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>105</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EL AGUSTINO (LIMA)</t>
+          <t>CUSCO (CUSCO)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="D21" t="n">
-        <v>234</v>
+        <v>72</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EL AGUSTINO</t>
+          <t>CUSCO</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>501</v>
+        <v>177</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>267</v>
+          <t>CUSCO</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EL PORVENIR (LA LIBERTAD)</t>
+          <t>EL AGUSTINO (LIMA)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="D22" t="n">
-        <v>304</v>
+        <v>234</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EL PORVENIR</t>
+          <t>EL AGUSTINO</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>47</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EL TAMBO (JUNIN)</t>
+          <t>EL PORVENIR (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="D23" t="n">
-        <v>140</v>
+        <v>304</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>EL TAMBO</t>
+          <t>EL PORVENIR</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>268</v>
+        <v>351</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>JUNIN</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>128</v>
+          <t>LA LIBERTAD</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA (LA LIBERTAD)</t>
+          <t>EL TAMBO (JUNIN)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D24" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FLORENCIA DE MORA</t>
+          <t>EL TAMBO</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>26</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HUANCAYO (JUNIN)</t>
+          <t>FLORENCIA DE MORA (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C25" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>HUANCAYO</t>
+          <t>FLORENCIA DE MORA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>JUNIN</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>145</v>
+          <t>LA LIBERTAD</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICA (ICA)</t>
+          <t>HUAMANCACA CHICO (JUNIN)</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>ICA</t>
+          <t>HUAMANCACA CHICO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>216</v>
+        <v>10</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>41</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA (LIMA)</t>
+          <t>HUANCAN (JUNIN)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA</t>
+          <t>HUANCAN</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>431</v>
+        <v>31</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>355</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IQUITOS (LORETO)</t>
+          <t>HUANCAYO (JUNIN)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="D28" t="n">
-        <v>219</v>
+        <v>106</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>IQUITOS</t>
+          <t>HUANCAYO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>448</v>
+        <v>251</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>LORETO</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>229</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JACOBO HUNTER (AREQUIPA)</t>
+          <t>HUAYUCACHI (JUNIN)</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>JACOBO HUNTER</t>
+          <t>HUAYUCACHI</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>11</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JESUS MARIA (LIMA)</t>
+          <t>ICA (ICA)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>JESUS MARIA</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>94</v>
+          <t>ICA</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>JESUS NAZARENO (AYACUCHO)</t>
+          <t>INDEPENDENCIA (LIMA)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="C31" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>JESUS NAZARENO</t>
+          <t>INDEPENDENCIA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>32</v>
+        <v>431</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>13</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ (LAMBAYEQUE)</t>
+          <t>IQUITOS (LORETO)</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D32" t="n">
-        <v>153</v>
+        <v>219</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>JOSE LEONARDO ORTIZ</t>
+          <t>IQUITOS</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>302</v>
+        <v>448</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>149</v>
+          <t>LORETO</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JOSE LUIS BUSTAMANTE Y RIVERO (AREQUIPA)</t>
+          <t>JACOBO HUNTER (AREQUIPA)</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D33" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>JOSE LUIS BUSTAMANTE Y RIVERO</t>
+          <t>JACOBO HUNTER</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
           <t>AREQUIPA</t>
         </is>
-      </c>
-      <c r="H33" t="n">
-        <v>30</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO (SAN MARTIN)</t>
+          <t>JESUS MARIA (LIMA)</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C34" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LA BANDA DE SHILCAYO</t>
+          <t>JESUS MARIA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>17</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LA ESPERANZA (LA LIBERTAD)</t>
+          <t>JESUS NAZARENO (AYACUCHO)</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="D35" t="n">
-        <v>274</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LA ESPERANZA</t>
+          <t>JESUS NAZARENO</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>308</v>
+        <v>32</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>34</v>
+          <t>AYACUCHO</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LA MOLINA (LIMA)</t>
+          <t>JOSE LEONARDO ORTIZ (LAMBAYEQUE)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="D36" t="n">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LA MOLINA</t>
+          <t>JOSE LEONARDO ORTIZ</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>109</v>
+          <t>LAMBAYEQUE</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LA PERLA (CALLAO)</t>
+          <t>JOSE LUIS BUSTAMANTE Y RIVERO (AREQUIPA)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37" t="n">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>LA PERLA</t>
+          <t>JOSE LUIS BUSTAMANTE Y RIVERO</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>38</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LA PUNTA (CALLAO)</t>
+          <t>LA BANDA DE SHILCAYO (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LA PUNTA</t>
+          <t>LA BANDA DE SHILCAYO</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
+          <t>SAN MARTIN</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>LA VICTORIA (LAMBAYEQUE)</t>
+          <t>LA ESPERANZA (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D39" t="n">
-        <v>104</v>
+        <v>274</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LA ESPERANZA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>158</v>
+        <v>308</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>LAMBAYEQUE</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>54</v>
+          <t>LA LIBERTAD</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LA VICTORIA (LIMA)</t>
+          <t>LA MOLINA (LIMA)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="D40" t="n">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>LA VICTORIA</t>
+          <t>LA MOLINA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>441</v>
+        <v>305</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H40" t="n">
-        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LIMA (LIMA)</t>
+          <t>LA PERLA (CALLAO)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="D41" t="n">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>LIMA</t>
+          <t>LA PERLA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>614</v>
+        <v>117</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>212</v>
+          <t>CALLAO</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LINCE (LIMA)</t>
+          <t>LA PUNTA (CALLAO)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D42" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>LINCE</t>
+          <t>LA PUNTA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>131</v>
+        <v>11</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>61</v>
+          <t>CALLAO</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LOS OLIVOS (LIMA)</t>
+          <t>LA VICTORIA (LAMBAYEQUE)</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="C43" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>513</v>
+        <v>104</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>LOS OLIVOS</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>627</v>
+        <v>158</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>114</v>
+          <t>LAMBAYEQUE</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MAGDALENA (LIMA)</t>
+          <t>LA VICTORIA (LIMA)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D44" t="n">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MAGDALENA</t>
+          <t>LA VICTORIA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>127</v>
+        <v>441</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MARIANO MELGAR (AREQUIPA)</t>
+          <t>LIMA (LIMA)</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="C45" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D45" t="n">
-        <v>48</v>
+        <v>402</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>MARIANO MELGAR</t>
+          <t>LIMA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>48</v>
+        <v>614</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MI PERU (CALLAO)</t>
+          <t>LINCE (LIMA)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C46" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MI PERU</t>
+          <t>LINCE</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MIRAFLORES (AREQUIPA)</t>
+          <t>LOS OLIVOS (LIMA)</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>63</v>
+        <v>513</v>
       </c>
       <c r="D47" t="n">
-        <v>63</v>
+        <v>513</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>LOS OLIVOS</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>62</v>
+        <v>627</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MIRAFLORES (LIMA)</t>
+          <t>MAGDALENA (LIMA)</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>217</v>
+        <v>113</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>MIRAFLORES</t>
+          <t>MAGDALENA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>250</v>
+        <v>127</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H48" t="n">
-        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MORALES (SAN MARTIN)</t>
+          <t>MARIANO MELGAR (AREQUIPA)</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D49" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MORALES</t>
+          <t>MARIANO MELGAR</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>20</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PARCONA (ICA)</t>
+          <t>MI PERU (CALLAO)</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="D50" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PARCONA</t>
+          <t>MI PERU</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>9</v>
+          <t>CALLAO</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PAUCARPATA (AREQUIPA)</t>
+          <t>MIRAFLORES (AREQUIPA)</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PAUCARPATA</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>AREQUIPA</t>
         </is>
-      </c>
-      <c r="H51" t="n">
-        <v>71</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PISCO (ICA)</t>
+          <t>MIRAFLORES (LIMA)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C52" t="n">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PISCO</t>
+          <t>MIRAFLORES</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>25</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PIURA (PIURA)</t>
+          <t>MORALES (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>416</v>
+        <v>17</v>
       </c>
       <c r="D53" t="n">
-        <v>416</v>
+        <v>17</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PIURA</t>
+          <t>MORALES</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>474</v>
+        <v>37</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>PIURA</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>58</v>
+          <t>SAN MARTIN</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE (LIMA)</t>
+          <t>PARCONA (ICA)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D54" t="n">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PUEBLO LIBRE</t>
+          <t>PARCONA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>81</v>
+          <t>ICA</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO (ICA)</t>
+          <t>PAUCARPATA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D55" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PUEBLO NUEVO</t>
+          <t>PAUCARPATA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>20</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA (LIMA)</t>
+          <t>PILCOMAYO (JUNIN)</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="D56" t="n">
-        <v>308</v>
+        <v>8</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PUENTE PIEDRA</t>
+          <t>PILCOMAYO</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>623</v>
+        <v>27</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>315</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PUNCHANA (LORETO)</t>
+          <t>PISCO (ICA)</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="D57" t="n">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PUNCHANA</t>
+          <t>PISCO</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>453</v>
+        <v>104</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>LORETO</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>317</v>
+          <t>ICA</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RIMAC (LIMA)</t>
+          <t>PIURA (PIURA)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="D58" t="n">
-        <v>55</v>
+        <v>416</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>RIMAC</t>
+          <t>PIURA</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>359</v>
+        <v>474</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>304</v>
+          <t>PIURA</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SACHACA (AREQUIPA)</t>
+          <t>PUEBLO LIBRE (LIMA)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="C59" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SACHACA</t>
+          <t>PUEBLO LIBRE</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SAN BORJA (LIMA)</t>
+          <t>PUEBLO NUEVO (ICA)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D60" t="n">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SAN BORJA</t>
+          <t>PUEBLO NUEVO</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>201</v>
+        <v>91</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>63</v>
+          <t>ICA</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SAN ISIDRO (LIMA)</t>
+          <t>PUENTE PIEDRA (LIMA)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="D61" t="n">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SAN ISIDRO</t>
+          <t>PUENTE PIEDRA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>143</v>
+        <v>623</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H61" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA (AYACUCHO)</t>
+          <t>PUNCHANA (LORETO)</t>
         </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="D62" t="n">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>PUNCHANA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>69</v>
+        <v>453</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>AYACUCHO</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
+          <t>LORETO</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA (LORETO)</t>
+          <t>RIMAC (LIMA)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C63" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA</t>
+          <t>RIMAC</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>527</v>
+        <v>359</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>LORETO</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>384</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO (LIMA)</t>
+          <t>SACHACA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>959</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>959</v>
+        <v>13</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SAN JUAN DE LURIGANCHO</t>
+          <t>SACHACA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>2012</v>
+        <v>18</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>1053</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES (LIMA)</t>
+          <t>SAN AGUSTIN (JUNIN)</t>
         </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SAN JUAN DE MIRAFLORES</t>
+          <t>SAN AGUSTIN</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>697</v>
+        <v>27</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>171</v>
+          <t>JUNIN</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SAN LUIS (LIMA)</t>
+          <t>SAN BORJA (LIMA)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SAN LUIS</t>
+          <t>SAN BORJA</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H66" t="n">
-        <v>57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES (LIMA)</t>
+          <t>SAN ISIDRO (LIMA)</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>488</v>
+        <v>111</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>488</v>
+        <v>111</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SAN MARTIN DE PORRES</t>
+          <t>SAN ISIDRO</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1075</v>
+        <v>143</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H67" t="n">
-        <v>587</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SAN MIGUEL (LIMA)</t>
+          <t>SAN JUAN BAUTISTA (AYACUCHO)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D68" t="n">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SAN MIGUEL</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>254</v>
+        <v>69</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>97</v>
+          <t>AYACUCHO</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SANTA ANITA (LIMA)</t>
+          <t>SAN JUAN BAUTISTA (LORETO)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="D69" t="n">
-        <v>84</v>
+        <v>143</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SANTA ANITA</t>
+          <t>SAN JUAN BAUTISTA</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>386</v>
+        <v>527</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>302</v>
+          <t>LORETO</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SANTIAGO (CUSCO)</t>
+          <t>SAN JUAN DE LURIGANCHO (LIMA)</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>36</v>
+        <v>959</v>
       </c>
       <c r="D70" t="n">
-        <v>36</v>
+        <v>959</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>SANTIAGO</t>
+          <t>SAN JUAN DE LURIGANCHO</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>150</v>
+        <v>2012</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>114</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO (LIMA)</t>
+          <t>SAN JUAN DE MIRAFLORES (LIMA)</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D71" t="n">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SANTIAGO DE SURCO</t>
+          <t>SAN JUAN DE MIRAFLORES</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>636</v>
+        <v>697</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H71" t="n">
-        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOCABAYA (AREQUIPA)</t>
+          <t>SAN LUIS (LIMA)</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C72" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SOCABAYA</t>
+          <t>SAN LUIS</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SULLANA (PIURA)</t>
+          <t>SAN MARTIN DE PORRES (LIMA)</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="C73" t="n">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>326</v>
+        <v>488</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SULLANA</t>
+          <t>SAN MARTIN DE PORRES</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>416</v>
+        <v>1075</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>PIURA</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>90</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SUNAMPE (ICA)</t>
+          <t>SAN MIGUEL (LIMA)</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="C74" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SUNAMPE</t>
+          <t>SAN MIGUEL</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>33</v>
+        <v>254</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>ICA</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SURQUILLO (LIMA)</t>
+          <t>SANTA ANITA (LIMA)</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SURQUILLO</t>
+          <t>SANTA ANITA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>177</v>
+        <v>386</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
           <t>LIMA</t>
         </is>
-      </c>
-      <c r="H75" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>TARAPOTO (SAN MARTIN)</t>
+          <t>SANTIAGO (CUSCO)</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D76" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TARAPOTO</t>
+          <t>SANTIAGO</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SAN MARTIN</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>43</v>
+          <t>CUSCO</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TIABAYA (AREQUIPA)</t>
+          <t>SANTIAGO DE SURCO (LIMA)</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>506</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TIABAYA</t>
+          <t>SANTIAGO DE SURCO</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>16</v>
+        <v>636</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>AREQUIPA</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>6</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TRUJILLO (LA LIBERTAD)</t>
+          <t>SOCABAYA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>572</v>
+        <v>54</v>
       </c>
       <c r="D78" t="n">
-        <v>572</v>
+        <v>54</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>TRUJILLO</t>
+          <t>SOCABAYA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>684</v>
+        <v>55</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>112</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE (PIURA)</t>
+          <t>SULLANA (PIURA)</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="D79" t="n">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VEINTISEIS DE OCTUBRE</t>
+          <t>SULLANA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>167</v>
+        <v>416</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
           <t>PIURA</t>
         </is>
-      </c>
-      <c r="H79" t="n">
-        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>VENTANILLA (CALLAO)</t>
+          <t>SUNAMPE (ICA)</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="D80" t="n">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VENTANILLA</t>
+          <t>SUNAMPE</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>372</v>
+        <v>33</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CALLAO</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>98</v>
+          <t>ICA</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA (LA LIBERTAD)</t>
+          <t>SURQUILLO (LIMA)</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C81" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VICTOR LARCO HERRERA</t>
+          <t>SURQUILLO</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>LA LIBERTAD</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+          <t>LIMA</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR (LIMA)</t>
+          <t>TARAPOTO (SAN MARTIN)</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="D82" t="n">
-        <v>402</v>
+        <v>57</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VILLA EL SALVADOR</t>
+          <t>TARAPOTO</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>607</v>
+        <v>100</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>205</v>
+          <t>SAN MARTIN</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO (LIMA)</t>
+          <t>TIABAYA (AREQUIPA)</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>436</v>
+        <v>10</v>
       </c>
       <c r="D83" t="n">
-        <v>436</v>
+        <v>10</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>VILLA MARIA DEL TRIUNFO</t>
+          <t>TIABAYA</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>698</v>
+        <v>16</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>LIMA</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>262</v>
+          <t>AREQUIPA</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WANCHAQ (CUSCO)</t>
+          <t>TRUJILLO (LA LIBERTAD)</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>52</v>
+        <v>572</v>
       </c>
       <c r="D84" t="n">
-        <v>52</v>
+        <v>572</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>WANCHAQ</t>
+          <t>TRUJILLO</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>106</v>
+        <v>684</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>CUSCO</t>
-        </is>
-      </c>
-      <c r="H84" t="n">
-        <v>54</v>
+          <t>LA LIBERTAD</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
+          <t>VEINTISEIS DE OCTUBRE (PIURA)</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>27</v>
+      </c>
+      <c r="C85" t="n">
+        <v>117</v>
+      </c>
+      <c r="D85" t="n">
+        <v>144</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>VEINTISEIS DE OCTUBRE</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>167</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>PIURA</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>VENTANILLA (CALLAO)</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>293</v>
+      </c>
+      <c r="D86" t="n">
+        <v>293</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>VENTANILLA</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>372</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>CALLAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>VICTOR LARCO HERRERA (LA LIBERTAD)</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>133</v>
+      </c>
+      <c r="D87" t="n">
+        <v>133</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>VICTOR LARCO HERRERA</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>146</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>LA LIBERTAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR (LIMA)</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>402</v>
+      </c>
+      <c r="D88" t="n">
+        <v>402</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>VILLA EL SALVADOR</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>607</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>LIMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>VILLA MARIA DEL TRIUNFO (LIMA)</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>476</v>
+      </c>
+      <c r="D89" t="n">
+        <v>476</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>VILLA MARIA DEL TRIUNFO</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>698</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>LIMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>WANCHAQ (CUSCO)</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>52</v>
+      </c>
+      <c r="D90" t="n">
+        <v>52</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>WANCHAQ</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>106</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>CUSCO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
           <t>YANAHUARA (AREQUIPA)</t>
         </is>
       </c>
-      <c r="B85" t="n">
+      <c r="B91" t="n">
         <v>20</v>
       </c>
-      <c r="C85" t="n">
-        <v>0</v>
-      </c>
-      <c r="D85" t="n">
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>20</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>YANAHUARA</t>
         </is>
       </c>
-      <c r="F85" t="n">
+      <c r="F91" t="n">
         <v>25</v>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>AREQUIPA</t>
         </is>
-      </c>
-      <c r="H85" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
